--- a/Content/Uploads/ImportTKB/CNTT UIS-ThoiKhoaBieu_TieuChuan_Mau.xlsx
+++ b/Content/Uploads/ImportTKB/CNTT UIS-ThoiKhoaBieu_TieuChuan_Mau.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CAPSTONE2024-DOCX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4653A2-917C-4AF4-BF88-147F32600F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB9F9A2-CC9E-451B-82AF-F2EC4BF8E7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1044" yWindow="3228" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TIÊU CHUẨN- phân công GV K28" sheetId="1" r:id="rId1"/>
@@ -6063,10 +6063,10 @@
   <dimension ref="A1:AF275"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="K47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C47" sqref="C47"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6080,6 +6080,7 @@
     <col min="7" max="7" width="14.8984375" style="2" customWidth="1"/>
     <col min="8" max="8" width="8.8984375" customWidth="1"/>
     <col min="12" max="13" width="9.09765625" customWidth="1"/>
+    <col min="14" max="14" width="10.796875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.59765625" customWidth="1"/>
     <col min="16" max="16" width="13.69921875" customWidth="1"/>
     <col min="17" max="17" width="23.59765625" customWidth="1"/>
